--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2409.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2409.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055826970109899</v>
+        <v>1.213415622711182</v>
       </c>
       <c r="B1">
-        <v>2.20021818720085</v>
+        <v>2.058534383773804</v>
       </c>
       <c r="C1">
-        <v>9.162439637912525</v>
+        <v>4.429384231567383</v>
       </c>
       <c r="D1">
-        <v>1.856457654286399</v>
+        <v>2.95613169670105</v>
       </c>
       <c r="E1">
-        <v>0.9909136794194662</v>
+        <v>1.194478034973145</v>
       </c>
     </row>
   </sheetData>
